--- a/TestInput/orangeHRM.xlsx
+++ b/TestInput/orangeHRM.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="5970" windowWidth="14790" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="5970" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TESTCASES" r:id="rId1" sheetId="1"/>
-    <sheet name="LOGIN" r:id="rId2" sheetId="2"/>
-    <sheet name="ADMIN_MODULE" r:id="rId3" sheetId="3"/>
+    <sheet name="TESTCASES" sheetId="1" r:id="rId1"/>
+    <sheet name="LOGIN" sheetId="2" r:id="rId2"/>
+    <sheet name="ADMIN_MODULE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:K17"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -148,7 +148,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,23 +189,23 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -223,10 +222,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -261,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,7 +295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,21 +389,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -421,7 +420,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -473,24 +472,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -536,13 +535,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -550,10 +549,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -735,21 +734,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E6"/>
+    <hyperlink ref="E6" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestInput/orangeHRM.xlsx
+++ b/TestInput/orangeHRM.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="5970" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="5970" windowWidth="15165" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TESTCASES" sheetId="1" r:id="rId1"/>
-    <sheet name="LOGIN" sheetId="2" r:id="rId2"/>
-    <sheet name="ADMIN_MODULE" sheetId="3" r:id="rId3"/>
+    <sheet name="TESTCASES" r:id="rId1" sheetId="1"/>
+    <sheet name="LOGIN" r:id="rId2" sheetId="2"/>
+    <sheet name="ADMIN_MODULE" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:K17"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -148,6 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,23 +190,23 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -222,10 +223,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -260,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,7 +296,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,21 +390,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -420,7 +421,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -472,15 +473,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -488,8 +489,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -535,13 +536,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -549,10 +550,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,21 +735,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="E6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>